--- a/web_ces/indicadores/SFE-XMOA_out.xlsx
+++ b/web_ces/indicadores/SFE-XMOA_out.xlsx
@@ -21117,13 +21117,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E80E25E-1358-4439-99E2-06C1C9552F33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C24A0651-9D27-4CF4-9EB6-0EDFCA35FB35}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{454E5BD5-8373-499F-9DE6-10ED5E999FF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D90BC98-AC43-49F3-A41E-144D28621441}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{484F5209-BF9B-486E-8244-D1CE59A002C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5665FDE3-492B-45E8-B7A2-83CB6E4CD615}"/>
 </file>